--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/财务费用.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/财务费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>47.69605</v>
-      </c>
-      <c r="C2" t="n">
-        <v>116.52606</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.807</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.07971</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>140.89011</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.26199</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41.86343</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.43893</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.86957</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.3149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.66972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>73.02898999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>70.70814</v>
-      </c>
-      <c r="P2" t="n">
-        <v>10.75883</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>25.56545</v>
-      </c>
-      <c r="R2" t="n">
-        <v>14.25378</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.30707</v>
-      </c>
-      <c r="T2" t="n">
-        <v>19.81375</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20.40536</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.05187</v>
-      </c>
-      <c r="W2" t="n">
-        <v>39.52933</v>
-      </c>
-      <c r="X2" t="n">
-        <v>318.12727</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>80.55341</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>83.24393999999999</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>16.80565</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>57.27084</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51.66493</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>114.432</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10.6799</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1960.96128</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>47.5121</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>45.31098</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>113.48271</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.20229</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>27.90728</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>64.1508</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>35.82045</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>127.9021</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4.07811</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>42.54187</v>
-      </c>
-      <c r="C3" t="n">
-        <v>102.88677</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.81403</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05287</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.33316</v>
-      </c>
-      <c r="G3" t="n">
-        <v>135.8939</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23.79306</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44.45235</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.88497</v>
-      </c>
-      <c r="K3" t="n">
-        <v>32.49549</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.86034</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.16883</v>
-      </c>
-      <c r="N3" t="n">
-        <v>71.66417</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56.49489</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9.97997</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>24.99772</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.46791</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.06939</v>
-      </c>
-      <c r="T3" t="n">
-        <v>21.57856</v>
-      </c>
-      <c r="U3" t="n">
-        <v>31.28118</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.85587</v>
-      </c>
-      <c r="W3" t="n">
-        <v>47.26203</v>
-      </c>
-      <c r="X3" t="n">
-        <v>379.05768</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>77.87187</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>85.42171999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14.88758</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>55.71266</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>27.41998</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>101.65698</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12.42389</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1904.59898</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>49.24024</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>42.187</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>100.69415</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.54203</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>25.65929</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>57.61524</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>31.964</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>109.51409</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>4.28544</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>43.26834</v>
-      </c>
-      <c r="C4" t="n">
-        <v>101.115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.05428</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05702</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.98747</v>
-      </c>
-      <c r="G4" t="n">
-        <v>140.86579</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25.70812</v>
-      </c>
-      <c r="I4" t="n">
-        <v>48.02244</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.13276</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32.37792</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.77859</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.20861</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68.79051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>59.68614</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10.33243</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24.06498</v>
-      </c>
-      <c r="R4" t="n">
-        <v>14.38843</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.27579</v>
-      </c>
-      <c r="T4" t="n">
-        <v>20.81913</v>
-      </c>
-      <c r="U4" t="n">
-        <v>28.63468</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.07478</v>
-      </c>
-      <c r="W4" t="n">
-        <v>57.9536</v>
-      </c>
-      <c r="X4" t="n">
-        <v>413.88918</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>92.7841</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>77.67883999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>14.8995</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>61.82767</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>25.38407</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>103.97596</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15.45869</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2000.76586</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>54.45118</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>40.0925</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>98.58789</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.35066</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>31.21618</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>59.66509</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>32.403</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>125.37901</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.34492</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
